--- a/biology/Biologie cellulaire et moléculaire/Pentraxine_2/Pentraxine_2.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Pentraxine_2/Pentraxine_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La pentraxine 2 ou le sérum amyloïde P est une protéine appartenant à la famille des pentraxines. Son gène est le APCS situé sur le chromosome 1 humain.
@@ -512,9 +524,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">il inhibe la différenciation des  fibrocytes[2], contribuant par ce biais à diminuer les phénomènes de fibrose. Il diminue l'activation de certains macrophages[3] et augmente l'expression du CXCL10, une cytokine, bloquant l'action du TGF bêta 1[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">il inhibe la différenciation des  fibrocytes, contribuant par ce biais à diminuer les phénomènes de fibrose. Il diminue l'activation de certains macrophages et augmente l'expression du CXCL10, une cytokine, bloquant l'action du TGF bêta 1.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pentraxine 2, sous forme de molécule recombinante, est en cours de test dans la fibrose pulmonaire idiopathique, permettant un ralentissement de l'évolution de la maladie[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pentraxine 2, sous forme de molécule recombinante, est en cours de test dans la fibrose pulmonaire idiopathique, permettant un ralentissement de l'évolution de la maladie.
 </t>
         </is>
       </c>
